--- a/curation/draft/package13/R13_BC_QRS_PGI.xlsx
+++ b/curation/draft/package13/R13_BC_QRS_PGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF1D417-5F94-45F1-93A6-DBE9DBDD4124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7507F4F8-894A-4245-A63E-46E41191EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>PGI01-Severity; PGI0101; PGI Generic Modification Version - Severity</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>Patient Global Impression Generic Modification Version (PGI Generic Modification Version) Considering all the ways your condition impacts you, how severe is your condition at this time?</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>A modified, generic version of a standardized questionnaire, developed as a patient reported outcomes counterpart for the Clinical Global Impressions scale published by Guy et al. in 1976, that assesses a patient's perception of their condition.</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -741,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -766,22 +766,22 @@
         <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -796,36 +796,36 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -840,36 +840,36 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -884,36 +884,36 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
@@ -928,36 +928,36 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -972,462 +972,462 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="M18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
